--- a/tools/mchatrf.xlsx
+++ b/tools/mchatrf.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF81E779-A1AF-4B43-BDAD-1FCD803657C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84456647-F69F-4214-9DEB-BB4F30352A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="221">
   <si>
     <t>ID</t>
   </si>
@@ -686,6 +686,72 @@
     <t>Laught or smile?; Talk or babble?; Request more by holding out his/her arms?; Other(describe):</t>
   </si>
   <si>
+    <t xml:space="preserve">Francisco </t>
+  </si>
+  <si>
+    <t>Does he/she walk?</t>
+  </si>
+  <si>
+    <t>13_01</t>
+  </si>
+  <si>
+    <t>Does he/she walk without holding on to anything?</t>
+  </si>
+  <si>
+    <t>Does he/she look you in the eye when you are talking to him/her, playing with him/her, or changing him/her?</t>
+  </si>
+  <si>
+    <t>14_01</t>
+  </si>
+  <si>
+    <t>14_02</t>
+  </si>
+  <si>
+    <t>Please give me an example of when he/she looks you in the eye.</t>
+  </si>
+  <si>
+    <t>Yes2or+_Yes1_No</t>
+  </si>
+  <si>
+    <t>Does he/she look you in the eye… When he/she needs something? When you are playing with him/her? During feeding? During diaper changes? When you are reading him/her a story? When you are talking to him/her?</t>
+  </si>
+  <si>
+    <t>14_03</t>
+  </si>
+  <si>
+    <t>Pass if yes in 2 or more questions in 14_02 / 14_03 if only 1 yes in 14_02</t>
+  </si>
+  <si>
+    <t>Does your child look you in the eye every day?</t>
+  </si>
+  <si>
+    <t>14_04</t>
+  </si>
+  <si>
+    <t>On a day when you are together all day, does he/she look you in the eye at least 5 times?</t>
+  </si>
+  <si>
+    <t>Does he/she try to copy what you do?</t>
+  </si>
+  <si>
+    <t>15_01</t>
+  </si>
+  <si>
+    <t>15_02</t>
+  </si>
+  <si>
+    <t>Please give me an example of something he/she would try to copy.</t>
+  </si>
+  <si>
+    <t>Yes2or+_Yes1or0</t>
+  </si>
+  <si>
+    <t>Does your child try to copy you if you… Stick out your tongue? Make a funny sound? Wave good bye? Clap your hands? Put your fingers to your lips to signal “Shhh”? Blow a kiss? Other (describe):</t>
+  </si>
+  <si>
+    <t>Pass if yes in 2 or more questions in 15_02 / FAIL if yes in 1 or none on 15_02</t>
+  </si>
+  <si>
     <t>Where we are?</t>
   </si>
   <si>
@@ -774,72 +840,6 @@
   </si>
   <si>
     <t>wyswietlac zeby zebrac wiecej inforamcji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco </t>
-  </si>
-  <si>
-    <t>Does he/she walk?</t>
-  </si>
-  <si>
-    <t>13_01</t>
-  </si>
-  <si>
-    <t>Does he/she walk without holding on to anything?</t>
-  </si>
-  <si>
-    <t>Does he/she look you in the eye when you are talking to him/her, playing with him/her, or changing him/her?</t>
-  </si>
-  <si>
-    <t>14_01</t>
-  </si>
-  <si>
-    <t>14_02</t>
-  </si>
-  <si>
-    <t>Please give me an example of when he/she looks you in the eye.</t>
-  </si>
-  <si>
-    <t>Yes2or+_Yes1_No</t>
-  </si>
-  <si>
-    <t>Does he/she look you in the eye… When he/she needs something? When you are playing with him/her? During feeding? During diaper changes? When you are reading him/her a story? When you are talking to him/her?</t>
-  </si>
-  <si>
-    <t>14_03</t>
-  </si>
-  <si>
-    <t>Pass if yes in 2 or more questions in 14_02 / 14_03 if only 1 yes in 14_02</t>
-  </si>
-  <si>
-    <t>Does your child look you in the eye every day?</t>
-  </si>
-  <si>
-    <t>14_04</t>
-  </si>
-  <si>
-    <t>On a day when you are together all day, does he/she look you in the eye at least 5 times?</t>
-  </si>
-  <si>
-    <t>Does he/she try to copy what you do?</t>
-  </si>
-  <si>
-    <t>15_01</t>
-  </si>
-  <si>
-    <t>15_02</t>
-  </si>
-  <si>
-    <t>Please give me an example of something he/she would try to copy.</t>
-  </si>
-  <si>
-    <t>Yes2or+_Yes1or0</t>
-  </si>
-  <si>
-    <t>Does your child try to copy you if you… Stick out your tongue? Make a funny sound? Wave good bye? Clap your hands? Put your fingers to your lips to signal “Shhh”? Blow a kiss? Other (describe):</t>
-  </si>
-  <si>
-    <t>Pass if yes in 2 or more questions in 15_02 / FAIL if yes in 1 or none on 15_02</t>
   </si>
 </sst>
 </file>
@@ -1384,11 +1384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:K5"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3574,6 +3574,318 @@
       </c>
       <c r="J94" s="6">
         <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="12">
+        <v>13</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12">
+        <v>13</v>
+      </c>
+      <c r="K96" s="12"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12">
+        <v>13</v>
+      </c>
+      <c r="K97" s="12"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="12">
+        <v>14</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12">
+        <v>14</v>
+      </c>
+      <c r="K98" s="12"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12">
+        <v>14</v>
+      </c>
+      <c r="K99" s="12"/>
+    </row>
+    <row r="100" spans="1:11" ht="30.75">
+      <c r="A100" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" s="12">
+        <v>14</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12">
+        <v>14</v>
+      </c>
+      <c r="K101" s="12"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12">
+        <v>14</v>
+      </c>
+      <c r="K102" s="12"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="12">
+        <v>15</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12">
+        <v>15</v>
+      </c>
+      <c r="K103" s="12"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12">
+        <v>15</v>
+      </c>
+      <c r="K104" s="12"/>
+    </row>
+    <row r="105" spans="1:11" ht="30.75">
+      <c r="A105" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="12">
+        <v>15</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3624,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="4:12">
@@ -3643,7 +3955,7 @@
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="4:12">
@@ -3651,10 +3963,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="4:12">
@@ -3662,10 +3974,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="4:12">
@@ -3676,7 +3988,7 @@
         <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="4:12">
@@ -3700,7 +4012,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="4:12">
@@ -3732,7 +4044,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="4:12">
@@ -3740,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -3748,7 +4060,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -4303,24 +4615,24 @@
     </row>
     <row r="4" spans="2:25">
       <c r="C4" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:25">
       <c r="C5" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:25">
       <c r="C6" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="18" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -4333,12 +4645,12 @@
     </row>
     <row r="8" spans="2:25">
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -4351,30 +4663,30 @@
       <c r="N8" s="3"/>
       <c r="T8" s="20"/>
       <c r="U8" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="W8" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Y8" s="21"/>
     </row>
     <row r="9" spans="2:25">
       <c r="T9" s="20"/>
       <c r="U9" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="W9" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="Y9" s="21"/>
     </row>
     <row r="10" spans="2:25">
       <c r="C10" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="T10" s="20"/>
       <c r="U10" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="Y10" s="21"/>
     </row>
@@ -4384,28 +4696,28 @@
     </row>
     <row r="12" spans="2:25">
       <c r="C12" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Y12" s="24"/>
     </row>
     <row r="13" spans="2:25">
       <c r="H13" s="26" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:25">
       <c r="B14" s="3" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4422,38 +4734,38 @@
     </row>
     <row r="15" spans="2:25">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G15" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="K19" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="K20" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="C22" s="26" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +4777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF77BF6C-82F9-426E-BE18-B9AFE6D66CB5}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4522,7 +4836,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>12</v>
@@ -4534,10 +4848,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>26</v>
@@ -4548,10 +4862,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>14</v>
@@ -4563,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>25</v>
@@ -4581,7 +4895,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>12</v>
@@ -4593,13 +4907,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="J5" s="12">
         <v>14</v>
@@ -4607,10 +4921,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>14</v>
@@ -4622,10 +4936,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="J6" s="12">
         <v>14</v>
@@ -4633,25 +4947,25 @@
     </row>
     <row r="7" spans="1:11" ht="45.75">
       <c r="A7" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>26</v>
@@ -4663,15 +4977,15 @@
         <v>14</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>14</v>
@@ -4683,10 +4997,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>26</v>
@@ -4697,10 +5011,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>14</v>
@@ -4712,7 +5026,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>25</v>
@@ -4730,7 +5044,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -4742,13 +5056,13 @@
         <v>14</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="J11" s="12">
         <v>15</v>
@@ -4756,10 +5070,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>14</v>
@@ -4771,10 +5085,10 @@
         <v>14</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="J12" s="12">
         <v>15</v>
@@ -4782,22 +5096,22 @@
     </row>
     <row r="13" spans="1:11" ht="70.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>25</v>
@@ -4809,7 +5123,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
